--- a/MRB/RobotA_mini/BOM.xlsx
+++ b/MRB/RobotA_mini/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>ITEM NO.</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>ชุดละ 10 ตัว</t>
+  </si>
+  <si>
+    <t>ระบบไฟฟ้า</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E8692977-A926-4239-AF36-855B278A518D}" diskRevisions="1" revisionId="55" version="3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{36413641-F8E5-4B02-A611-BE07FDB8FEBB}" diskRevisions="1" revisionId="60" version="4">
   <header guid="{3B53314B-E586-437B-A9B7-DB0980754DED}" dateTime="2018-06-02T20:04:34" maxSheetId="2" userName="Windows User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -200,6 +203,11 @@
     </sheetIdMap>
   </header>
   <header guid="{E8692977-A926-4239-AF36-855B278A518D}" dateTime="2018-06-02T20:44:20" maxSheetId="2" userName="Windows User" r:id="rId3" minRId="36" maxRId="55">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{36413641-F8E5-4B02-A611-BE07FDB8FEBB}" dateTime="2018-06-02T21:09:03" maxSheetId="2" userName="Windows User" r:id="rId4" minRId="56" maxRId="60">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -777,9 +785,33 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="56" sId="1" eol="1" ref="A18:XFD18" action="insertRow"/>
+  <rcc rId="57" sId="1">
+    <nc r="F18" t="inlineStr">
+      <is>
+        <t>ระบบไฟฟ้า</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="1">
+    <nc r="G18">
+      <v>6900</v>
+    </nc>
+  </rcc>
+  <rrc rId="59" sId="1" eol="1" ref="A19:XFD19" action="insertRow"/>
+  <rcc rId="60" sId="1">
+    <nc r="G19">
+      <f>G17+G18</f>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{E8692977-A926-4239-AF36-855B278A518D}" name="Windows User" id="-1378403285" dateTime="2018-06-02T20:06:02"/>
+  <userInfo guid="{36413641-F8E5-4B02-A611-BE07FDB8FEBB}" name="Windows User" id="-1378403285" dateTime="2018-06-02T20:06:02"/>
 </users>
 </file>
 
@@ -1046,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1327,6 +1359,20 @@
         <v>4230</v>
       </c>
     </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f>G17+G18</f>
+        <v>11130</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{9C02BF3F-A5F5-4716-9ED2-BFA7BF1DA54F}">

--- a/MRB/RobotA_mini/BOM.xlsx
+++ b/MRB/RobotA_mini/BOM.xlsx
@@ -810,9 +810,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{36413641-F8E5-4B02-A611-BE07FDB8FEBB}" name="Windows User" id="-1378403285" dateTime="2018-06-02T20:06:02"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
